--- a/CollectionWeb/WebContent/resources/templates/tramas_ventas.xlsx
+++ b/CollectionWeb/WebContent/resources/templates/tramas_ventas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fea45495c986031e/Documents/Proyectos/Cobranzas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="7935" windowWidth="20115" windowHeight="7935" tabRatio="968" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="7935" windowWidth="20115" windowHeight="7935" tabRatio="968"/>
   </bookViews>
   <sheets>
     <sheet name="T VENTAS" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="216">
   <si>
     <t>CODIGO UNICO</t>
   </si>
@@ -266,9 +266,6 @@
     <t>RECURRENTE</t>
   </si>
   <si>
-    <t>BI ANUAL</t>
-  </si>
-  <si>
     <t>GLAI</t>
   </si>
   <si>
@@ -329,12 +326,6 @@
     <t>dato de MAGIC</t>
   </si>
   <si>
-    <t>USUARIO BAJA</t>
-  </si>
-  <si>
-    <t>CANAL BAJA</t>
-  </si>
-  <si>
     <t>CCASTILLO</t>
   </si>
   <si>
@@ -365,12 +356,6 @@
     <t>FECHA ESTADO</t>
   </si>
   <si>
-    <t>MOTIVO BAJA</t>
-  </si>
-  <si>
-    <t>OBSERVACION BAJA</t>
-  </si>
-  <si>
     <t>REQUERIDO</t>
   </si>
   <si>
@@ -515,9 +500,6 @@
     <t>12/05/2015</t>
   </si>
   <si>
-    <t>ALTA</t>
-  </si>
-  <si>
     <t>VISA</t>
   </si>
   <si>
@@ -528,9 +510,6 @@
   </si>
   <si>
     <t>0521582105</t>
-  </si>
-  <si>
-    <t>Mastercard</t>
   </si>
   <si>
     <t>ÚNICO</t>
@@ -696,6 +675,12 @@
   </si>
   <si>
     <t>COD. M.P.</t>
+  </si>
+  <si>
+    <t>ANUAL</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
   </si>
 </sst>
 </file>
@@ -1789,11 +1774,9 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1851,7 +1834,7 @@
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>51</v>
@@ -1875,10 +1858,10 @@
         <v>21</v>
       </c>
       <c r="I1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>13</v>
@@ -1965,7 +1948,7 @@
         <v>27</v>
       </c>
       <c r="AM1" s="20" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="AN1" s="9" t="s">
         <v>28</v>
@@ -1977,37 +1960,37 @@
         <v>37</v>
       </c>
       <c r="AQ1" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR1" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AS1" s="15" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="AT1" s="15" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="AU1" s="15" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="AV1" s="15" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="AW1" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AX1" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AY1" t="str">
         <f>+CONCATENATE(A1,AX1,B1,AX1,C1,AX1,D1,AX1,E1,AX1,F1,AX1,G1,AX1,TEXT(H1,"MM/YYYY"),AX1,I1,AX1,J1,AX1,K1,AX1,L1,AX1,M1,AX1,N1,AX1,O1,AX1,P1,AX1,Q1,AX1,R1,AX1,S1,AX1,T1,AX1,U1,AX1,V1,AX1,W1,AX1,X1,AX1,Y1,AX1,TEXT(Z1,"DD/MM/YYYY"),AX1,AA1,AX1,AB1,AX1,AC1,AX1,AD1,AX1,AE1,AX1,AF1,AX1,AG1,AX1,AH1,AX1,AI1,AX1,AJ1,AX1,AK1,AX1,AL1,AX1,AM1,AX1,AN1,AX1,TEXT(AO1,"DD/MM/YYYY"),AX1,AP1,AX1,AQ1,AX1,IF(ISBLANK(AR1),"",TEXT(AR1,"DD/MM/YYYY")),AX1,AS1,AX1,AT1,AX1,AU1,AX1,AV1,AX1,IF(ISBLANK(AW1),"",TEXT(AW1,"DD/MM/YYYY")))</f>
-        <v>TIPO DOC|NUIC RESP PAGO|AP PAT RESP PAGO|AP MAT RESP PAGO|NOMBRES RESP PAGO|N° TARJETA DE CREDITO|N° DE CUENTA|FECHA VENC TARJETA|STATUS|DÍAS MORA|NUIC CONTRATANTE|AP PAT CONTRATANTE|AP MAT CONTRATANTE|NOMBRES CONTRATANTE|NUIC ASEGURADO|AP PAT ASEGURADO|AP MAT ASEGURADO|NOMBRES ASEGURADO|TELEFONO 1|TELEFONO 2|E-MAIL|DEPARTAMENTO|PROVINCIA|DISTRITO|DIRECCION|FECHA DE VENTA|CANAL DE VENTA|LUGAR DE VENTA|COD DE VENDEDOR|NOMBRE DE VENDEDOR|# DE POLIZA|# CERTIFICADO|# PROPUESTA|CODIGO DE COMERCIO|PRODUCTO|DESCRIPCION DEL PRODUCTO|PERIODO DE COBRO|TIPO DE COBRO|MEDIO DE PAGO|PRIMA|FECHA DE AUDITORIA|USUARIO DE AUDITORIA|ESTADO|FECHA ESTADO|USUARIO BAJA|CANAL BAJA|MOTIVO BAJA|OBSERVACION BAJA|FECHA ACTUALIZACION TC</v>
+        <v>TIPO DOC|NUIC RESP PAGO|AP PAT RESP PAGO|AP MAT RESP PAGO|NOMBRES RESP PAGO|N° TARJETA DE CREDITO|N° DE CUENTA|FECHA VENC TARJETA|STATUS|DÍAS MORA|NUIC CONTRATANTE|AP PAT CONTRATANTE|AP MAT CONTRATANTE|NOMBRES CONTRATANTE|NUIC ASEGURADO|AP PAT ASEGURADO|AP MAT ASEGURADO|NOMBRES ASEGURADO|TELEFONO 1|TELEFONO 2|E-MAIL|DEPARTAMENTO|PROVINCIA|DISTRITO|DIRECCION|FECHA DE VENTA|CANAL DE VENTA|LUGAR DE VENTA|COD DE VENDEDOR|NOMBRE DE VENDEDOR|# DE POLIZA|# CERTIFICADO|# PROPUESTA|CODIGO DE COMERCIO|PRODUCTO|DESCRIPCION DEL PRODUCTO|PERIODO DE COBRO|TIPO DE COBRO|BANCO|PRIMA|FECHA DE AUDITORIA|USUARIO DE AUDITORIA|ESTADO|FECHA ESTADO|USUARIO ESTADO|CANAL ESTADO|MOTIVO ESTADO|OBSERVACION ESTADO|FECHA ACTUALIZACION TC</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="4">
         <v>223456</v>
@@ -2049,7 +2032,7 @@
         <v>55</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>53</v>
@@ -2067,7 +2050,7 @@
         <v>4212121</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>57</v>
@@ -2106,22 +2089,22 @@
         <v>74</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>77</v>
+        <v>162</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="AJ2" s="4" t="s">
         <v>77</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="AL2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AM2" s="4" t="s">
-        <v>165</v>
+      <c r="AM2" s="4">
+        <v>10</v>
       </c>
       <c r="AN2" s="4">
         <v>200</v>
@@ -2130,40 +2113,40 @@
         <v>42008</v>
       </c>
       <c r="AP2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AQ2" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AR2" s="6">
         <v>42005</v>
       </c>
       <c r="AS2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AT2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="AV2" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AW2" s="6">
         <v>42005</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AY2" t="str">
         <f t="shared" ref="AY2:AY5" si="0">+CONCATENATE(A2,AX2,B2,AX2,C2,AX2,D2,AX2,E2,AX2,F2,AX2,G2,AX2,TEXT(H2,"MM/YYYY"),AX2,I2,AX2,J2,AX2,K2,AX2,L2,AX2,M2,AX2,N2,AX2,O2,AX2,P2,AX2,Q2,AX2,R2,AX2,S2,AX2,T2,AX2,U2,AX2,V2,AX2,W2,AX2,X2,AX2,Y2,AX2,TEXT(Z2,"DD/MM/YYYY"),AX2,AA2,AX2,AB2,AX2,AC2,AX2,AD2,AX2,AE2,AX2,AF2,AX2,AG2,AX2,AH2,AX2,AI2,AX2,AJ2,AX2,AK2,AX2,AL2,AX2,AM2,AX2,AN2,AX2,TEXT(AO2,"DD/MM/YYYY"),AX2,AP2,AX2,AQ2,AX2,IF(ISBLANK(AR2),"",TEXT(AR2,"DD/MM/YYYY")),AX2,AS2,AX2,AT2,AX2,AU2,AX2,AV2,AX2,IF(ISBLANK(AW2),"",TEXT(AW2,"DD/MM/YYYY")))</f>
-        <v>DNI|223456|MARTINEZ|NUÑEZ|MARIO|4500343434566778|7745689000|11/2017|NORMAL|0|09876342|GARCIA|DE MARTINEZ|MARIA SOLEDAD|09876348|GARCIA|DE MARTINEZ|MARIA SOLEDAD|999888345|4212121|cesar_return@hotmail.com|LIMA|LIMA|SAN ISIDRO|Jr Leguia 222, Ur Corpac, San Isidro|01/01/2015|BANCO|AG. CENTRO CIVICO|WQ6656|Juan Salas|00000000OF|0000003216|0000182418|0521582105|ASISTENCIA|ASISTENCIA|BI ANUAL|PREPAGO|VISA|200|04/01/2015|GLAI|BAJA|01/01/2015|CCASTILLO|COBRANZAS|MOROSIDAD|3 MESES SIN COBRO|01/01/2015</v>
+        <v>DNI|223456|MARTINEZ|NUÑEZ|MARIO|4500343434566778|7745689000|11/2017|NORMAL|0|09876342|GARCIA|DE MARTINEZ|MARIA SOLEDAD|09876348|GARCIA|DE MARTINEZ|MARIA SOLEDAD|999888345|4212121|cesar_return@hotmail.com|LIMA|LIMA|SAN ISIDRO|Jr Leguia 222, Ur Corpac, San Isidro|01/01/2015|BANCO|AG. CENTRO CIVICO|WQ6656|Juan Salas|00000000OF|0000003216|0000182418|0521582105|01|ASISTENCIA|ANUAL|PREPAGO|10|200|04/01/2015|GLAI|BAJA|01/01/2015|CCASTILLO|COBRANZAS|MOROSIDAD|3 MESES SIN COBRO|01/01/2015</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4">
         <v>55674</v>
@@ -2223,7 +2206,7 @@
         <v>3244455</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>58</v>
@@ -2262,10 +2245,10 @@
         <v>76</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>77</v>
+        <v>160</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="AJ3" s="4" t="s">
         <v>77</v>
@@ -2276,8 +2259,8 @@
       <c r="AL3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AM3" s="4" t="s">
-        <v>169</v>
+      <c r="AM3" s="4">
+        <v>10</v>
       </c>
       <c r="AN3" s="4">
         <v>17.899999999999999</v>
@@ -2286,61 +2269,61 @@
         <v>42009</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AR3" s="6">
         <v>42006</v>
       </c>
       <c r="AS3" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AT3" s="4" t="s">
         <v>65</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AV3" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AW3" s="6">
         <v>42005</v>
       </c>
       <c r="AX3" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AY3" t="str">
         <f t="shared" si="0"/>
-        <v>DNI|55674|SUAREZ|COLCHADO|LUIS|4500343434570231|7745689889|12/2015|MORA &lt; 90|33|00055674|SUAREZ|COLCHADO|LUIS|5567557|SUAREZ|COLCHADO|LUIS|992233111|3244455|cesar_return@hotmail.com|JUNIN|HUANCAYO|EL TAMBO|Jr Parra del Riego h33, Ur Ambrosio Salazar|02/01/2015|TMK|TMK|006453|Daniel Napaico|00000000OF|0000003188|0000181798|0006030955|ASISTENCIA|ASISTENCIA|MENSUAL|RECURRENTE|Mastercard|17.9|05/01/2015|USENA|BAJA|02/01/2015|BLINARES|BANCO|A SOLICITUD DEL CLIENTE|NO DESEA EL SERVICIO|01/01/2015</v>
+        <v>DNI|55674|SUAREZ|COLCHADO|LUIS|4500343434570231|7745689889|12/2015|MORA &lt; 90|33|00055674|SUAREZ|COLCHADO|LUIS|5567557|SUAREZ|COLCHADO|LUIS|992233111|3244455|cesar_return@hotmail.com|JUNIN|HUANCAYO|EL TAMBO|Jr Parra del Riego h33, Ur Ambrosio Salazar|02/01/2015|TMK|TMK|006453|Daniel Napaico|00000000OF|0000003188|0000181798|0006030955|01|ASISTENCIA|MENSUAL|RECURRENTE|10|17.9|05/01/2015|USENA|BAJA|02/01/2015|BLINARES|BANCO|A SOLICITUD DEL CLIENTE|NO DESEA EL SERVICIO|01/01/2015</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>25478</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="E4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>136</v>
       </c>
       <c r="G4">
         <v>7745896521</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
@@ -2349,37 +2332,37 @@
         <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M4" t="s">
         <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="O4">
         <v>4343434</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="Q4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="R4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="S4">
-        <v>9987556329</v>
+        <v>987556329</v>
       </c>
       <c r="T4">
         <v>458778891</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="V4" s="3" t="s">
         <v>57</v>
@@ -2388,13 +2371,13 @@
         <v>57</v>
       </c>
       <c r="X4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Y4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Z4" s="6">
-        <v>42006</v>
+        <v>42007</v>
       </c>
       <c r="AA4" s="6" t="s">
         <v>66</v>
@@ -2403,25 +2386,25 @@
         <v>66</v>
       </c>
       <c r="AC4" s="19" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AE4" s="4" t="s">
         <v>72</v>
       </c>
       <c r="AF4" s="19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>77</v>
+        <v>161</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="AJ4" s="4" t="s">
         <v>77</v>
@@ -2432,20 +2415,20 @@
       <c r="AL4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AM4" s="4" t="s">
-        <v>124</v>
+      <c r="AM4" s="4">
+        <v>10</v>
       </c>
       <c r="AN4">
         <v>77.2</v>
       </c>
       <c r="AO4" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AP4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ4" s="4" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="AR4" s="6">
         <v>42007</v>
@@ -2454,37 +2437,37 @@
         <v>42006</v>
       </c>
       <c r="AX4" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AY4" t="str">
         <f t="shared" si="0"/>
-        <v>DNI|25478|SANCHEZ|MONTERROSO|CESAR|4500343344570230|7745896521|12/2015|MORA &lt; 90|27|0147855|PEREZ|MARTINEZ|JUAN|4343434|QUISPE|PERCA|WILLY|9987556329|458778891|cesar_return@hotmail.com|LIMA|LIMA|SAN JUAN DE MIRAFLORES|Jr ilo 554|02/01/2015|TMK|TMK|998555|Luis Perez|00000000OF|00002254|55455555|0005003745|ASISTENCIA|ASISTENCIA|MENSUAL|RECURRENTE|Banco|77.2|25/01/2015|USENA|ALTA|03/01/2015|||||02/01/2015</v>
+        <v>DNI|25478|SANCHEZ|MONTERROSO|CESAR|4500343344570230|7745896521|12/2015|MORA &lt; 90|27|0147855|PEREZ|MARTINEZ|JUAN|4343434|QUISPE|PERCA|WILLY|987556329|458778891|cesar_return@hotmail.com|LIMA|LIMA|SAN JUAN DE MIRAFLORES|Jr ilo 554|03/01/2015|TMK|TMK|998555|Luis Perez|00000000OF|00002254|55455555|0005003745|01|ASISTENCIA|MENSUAL|RECURRENTE|10|77.2|25/01/2015|USENA|ACTIVO|03/01/2015|||||02/01/2015</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>445874</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="E5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="G5">
         <v>7445435133</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
@@ -2493,13 +2476,13 @@
         <v>60</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L5" t="s">
         <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="N5" t="s">
         <v>43</v>
@@ -2508,22 +2491,22 @@
         <v>67876767</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="Q5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="R5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="S5">
-        <v>9988744556</v>
+        <v>988744556</v>
       </c>
       <c r="T5">
         <v>455876522</v>
       </c>
       <c r="U5" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="V5" t="s">
         <v>57</v>
@@ -2532,13 +2515,13 @@
         <v>57</v>
       </c>
       <c r="X5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Y5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Z5" s="6">
-        <v>42006</v>
+        <v>42008</v>
       </c>
       <c r="AA5" s="6" t="s">
         <v>66</v>
@@ -2547,25 +2530,25 @@
         <v>66</v>
       </c>
       <c r="AC5" s="19" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AE5" s="4" t="s">
         <v>72</v>
       </c>
       <c r="AF5" s="19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AG5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AH5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>77</v>
+      <c r="AI5" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="AJ5" s="4" t="s">
         <v>77</v>
@@ -2576,20 +2559,20 @@
       <c r="AL5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AM5" s="4" t="s">
-        <v>124</v>
+      <c r="AM5" s="4">
+        <v>10</v>
       </c>
       <c r="AN5">
         <v>889.36</v>
       </c>
       <c r="AO5" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AP5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ5" s="4" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="AR5" s="6">
         <v>42008</v>
@@ -2598,17 +2581,11 @@
         <v>42007</v>
       </c>
       <c r="AX5" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AY5" t="str">
         <f t="shared" si="0"/>
-        <v>DNI|445874|SALAS|LOPEZ|ADRIAN|4500343434570220|7445435133|12/2015|MORA &lt; 90|60|44455556|GARCIA|GUEVARA|LUIS|67876767|TRUJILLO|BALZA|MARIA|9988744556|455876522|cesar_return@hotmail.com|LIMA|LIMA|MIRAFLORES|Jr trujillo 334|02/01/2015|TMK|TMK|001254|Jose Luna|00000000OF|0002254|0024546|0005003745|ASISTENCIA|ASISTENCIA|MENSUAL|RECURRENTE|Banco|889.36|12/05/2015|USENA|ALTA|04/01/2015|||||03/01/2015</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="Z6" t="str">
-        <f>+TEXT(Z2,"YMD")&amp;"0"&amp;O2*1</f>
-        <v>151109876348</v>
+        <v>DNI|445874|SALAS|LOPEZ|ADRIAN|4500343434570220|7445435133|12/2015|MORA &lt; 90|60|44455556|GARCIA|GUEVARA|LUIS|67876767|TRUJILLO|BALZA|MARIA|988744556|455876522|cesar_return@hotmail.com|LIMA|LIMA|MIRAFLORES|Jr trujillo 334|04/01/2015|TMK|TMK|001254|Jose Luna|00000000OF|0002254|0024546|0005003745|01|ASISTENCIA|MENSUAL|RECURRENTE|10|889.36|12/05/2015|USENA|ACTIVO|04/01/2015|||||03/01/2015</v>
       </c>
     </row>
   </sheetData>
@@ -2646,25 +2623,25 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2672,16 +2649,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="23">
         <v>3</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -2694,16 +2671,16 @@
         <v>51</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="23">
         <v>8</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G3" s="25"/>
     </row>
@@ -2715,16 +2692,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="23">
         <v>50</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G4" s="25"/>
     </row>
@@ -2736,16 +2713,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="23">
         <v>50</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G5" s="25"/>
     </row>
@@ -2757,16 +2734,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="23">
         <v>50</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G6" s="25"/>
     </row>
@@ -2778,13 +2755,13 @@
         <v>19</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="27">
         <v>16</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -2797,16 +2774,16 @@
         <v>20</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="27">
         <v>10</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G8" s="25"/>
     </row>
@@ -2818,13 +2795,13 @@
         <v>21</v>
       </c>
       <c r="C9" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>95</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>96</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -2837,13 +2814,13 @@
         <v>22</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="31">
         <v>20</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
@@ -2857,13 +2834,13 @@
         <v>50</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="31">
         <v>4</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
@@ -2877,13 +2854,13 @@
         <v>13</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="23">
         <v>8</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
@@ -2897,13 +2874,13 @@
         <v>14</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="23">
         <v>50</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
@@ -2916,13 +2893,13 @@
         <v>15</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="23">
         <v>50</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
@@ -2935,13 +2912,13 @@
         <v>16</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="23">
         <v>50</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
@@ -2954,19 +2931,19 @@
         <v>12</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="23">
         <v>8</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2977,13 +2954,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="23">
         <v>50</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
@@ -2996,13 +2973,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="23">
         <v>50</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
@@ -3015,13 +2992,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="23">
         <v>50</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
@@ -3034,13 +3011,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="23">
         <v>9</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
@@ -3053,13 +3030,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="23">
         <v>9</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -3072,13 +3049,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="23">
         <v>45</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
@@ -3091,13 +3068,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="23">
         <v>20</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
@@ -3110,13 +3087,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="23">
         <v>20</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
@@ -3129,13 +3106,13 @@
         <v>4</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="23">
         <v>40</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
@@ -3148,13 +3125,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="23">
         <v>150</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
@@ -3167,19 +3144,19 @@
         <v>29</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" s="32">
         <v>10</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3190,13 +3167,13 @@
         <v>64</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="31">
         <v>15</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
@@ -3209,13 +3186,13 @@
         <v>30</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="31">
         <v>25</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
@@ -3228,13 +3205,13 @@
         <v>31</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="27">
         <v>10</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
@@ -3247,13 +3224,13 @@
         <v>32</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="31">
         <v>35</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
@@ -3266,13 +3243,13 @@
         <v>34</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="27">
         <v>10</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
@@ -3285,13 +3262,13 @@
         <v>33</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="27">
         <v>10</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
@@ -3304,13 +3281,13 @@
         <v>35</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D34" s="27">
         <v>10</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
@@ -3323,16 +3300,16 @@
         <v>25</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" s="23">
         <v>10</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G35" s="25"/>
     </row>
@@ -3344,16 +3321,16 @@
         <v>23</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="31">
         <v>45</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G36" s="25"/>
     </row>
@@ -3365,13 +3342,13 @@
         <v>24</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37" s="31">
         <v>45</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
@@ -3384,16 +3361,16 @@
         <v>26</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" s="31">
         <v>45</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G38" s="25"/>
     </row>
@@ -3405,16 +3382,16 @@
         <v>27</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" s="31">
         <v>15</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G39" s="25"/>
     </row>
@@ -3423,19 +3400,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="31">
         <v>10</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G40" s="25"/>
     </row>
@@ -3447,16 +3424,16 @@
         <v>28</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41" s="31">
         <v>8</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G41" s="25"/>
     </row>
@@ -3468,16 +3445,16 @@
         <v>36</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D42" s="32">
         <v>10</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G42" s="25"/>
     </row>
@@ -3489,16 +3466,16 @@
         <v>37</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D43" s="31">
         <v>15</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G43" s="25"/>
     </row>
@@ -3507,17 +3484,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" s="23"/>
       <c r="E44" s="23" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G44" s="25"/>
       <c r="H44" s="12"/>
@@ -3527,16 +3504,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="32">
         <v>10</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
@@ -3546,16 +3523,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" s="23">
         <v>15</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
@@ -3565,16 +3542,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47" s="23">
         <v>15</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
@@ -3584,16 +3561,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48" s="23">
         <v>30</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
@@ -3603,16 +3580,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49" s="23">
         <v>120</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
@@ -3622,16 +3599,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D50" s="32">
         <v>10</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
@@ -3644,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D51" s="36">
         <v>20</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
@@ -3660,14 +3637,14 @@
         <v>51</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D52" s="36"/>
       <c r="E52" s="36" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
@@ -3677,14 +3654,14 @@
         <v>52</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" s="36"/>
       <c r="E53" s="36" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
@@ -3694,14 +3671,14 @@
         <v>53</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" s="36"/>
       <c r="E54" s="36" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
@@ -3711,14 +3688,14 @@
         <v>54</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55" s="36"/>
       <c r="E55" s="36" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
@@ -3733,8 +3710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3750,45 +3727,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C1" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C2" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G2" s="38" t="str">
         <f>CONCATENATE(B2,D2,F2)</f>
@@ -3797,22 +3774,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G3" s="38" t="str">
         <f t="shared" ref="G3:G20" si="0">CONCATENATE(B3,D3,F3)</f>
@@ -3821,22 +3798,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G4" s="38" t="str">
         <f t="shared" si="0"/>
@@ -3845,22 +3822,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G5" s="38" t="str">
         <f t="shared" si="0"/>
@@ -3869,22 +3846,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G6" s="38" t="str">
         <f t="shared" si="0"/>
@@ -3893,22 +3870,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G7" s="38" t="str">
         <f t="shared" si="0"/>
@@ -3917,22 +3894,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G8" s="38" t="str">
         <f t="shared" si="0"/>
@@ -3941,22 +3918,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G9" s="38" t="str">
         <f t="shared" si="0"/>
@@ -3965,22 +3942,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G10" s="38" t="str">
         <f t="shared" si="0"/>
@@ -3989,22 +3966,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G11" s="38" t="str">
         <f t="shared" si="0"/>
@@ -4013,22 +3990,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G12" s="38" t="str">
         <f t="shared" si="0"/>
@@ -4037,22 +4014,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G13" s="38" t="str">
         <f t="shared" si="0"/>
@@ -4061,22 +4038,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G14" s="38" t="str">
         <f t="shared" si="0"/>
@@ -4085,22 +4062,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G15" s="38" t="str">
         <f t="shared" si="0"/>
@@ -4109,22 +4086,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C16" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G16" s="38" t="str">
         <f t="shared" si="0"/>
@@ -4133,22 +4110,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G17" s="38" t="str">
         <f t="shared" si="0"/>
@@ -4157,22 +4134,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G18" s="38" t="str">
         <f t="shared" si="0"/>
@@ -4181,22 +4158,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G19" s="38" t="str">
         <f t="shared" si="0"/>
@@ -4205,22 +4182,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C20" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G20" s="38" t="str">
         <f t="shared" si="0"/>

--- a/CollectionWeb/WebContent/resources/templates/tramas_ventas.xlsx
+++ b/CollectionWeb/WebContent/resources/templates/tramas_ventas.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\OneDrive\Proyectos\Cobranzas\TRAMAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="7935" windowWidth="20115" windowHeight="7935" tabRatio="968"/>
   </bookViews>
   <sheets>
-    <sheet name="T VENTAS" sheetId="1" r:id="rId1"/>
-    <sheet name="DES T VENTAS" sheetId="2" r:id="rId2"/>
-    <sheet name="CODIGO COMERCIO" sheetId="14" r:id="rId3"/>
+    <sheet name="TRAMA" sheetId="1" r:id="rId1"/>
+    <sheet name="DESCRIPCIÓN TRAMA" sheetId="2" r:id="rId2"/>
+    <sheet name="CÓDIGOS" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="200">
   <si>
     <t>CODIGO UNICO</t>
   </si>
@@ -290,40 +290,22 @@
     <t>BAJA</t>
   </si>
   <si>
-    <t>dato del cliente</t>
-  </si>
-  <si>
     <t>numérico</t>
   </si>
   <si>
-    <t>DNI en formato de 8 dígitos</t>
-  </si>
-  <si>
     <t>texto</t>
   </si>
   <si>
-    <t>dato del banco</t>
-  </si>
-  <si>
     <t>fecha</t>
   </si>
   <si>
-    <t>dato del banco, formato "mm/yyyy"</t>
-  </si>
-  <si>
-    <t>dato de venta, formato "dd/mm/yyyy"</t>
-  </si>
-  <si>
-    <t>dato de venta</t>
-  </si>
-  <si>
     <t>moneda</t>
   </si>
   <si>
-    <t>dato de MAGIC, formato "dd/mm/yyyy"</t>
-  </si>
-  <si>
-    <t>dato de MAGIC</t>
+    <t>USUARIO BAJA</t>
+  </si>
+  <si>
+    <t>CANAL BAJA</t>
   </si>
   <si>
     <t>CCASTILLO</t>
@@ -350,12 +332,15 @@
     <t>|</t>
   </si>
   <si>
-    <t>MEDIO DE PAGO</t>
-  </si>
-  <si>
     <t>FECHA ESTADO</t>
   </si>
   <si>
+    <t>MOTIVO BAJA</t>
+  </si>
+  <si>
+    <t>OBSERVACION BAJA</t>
+  </si>
+  <si>
     <t>REQUERIDO</t>
   </si>
   <si>
@@ -371,30 +356,15 @@
     <t>X</t>
   </si>
   <si>
-    <t>fecha de estado, formato "dd/mm/yyyy"</t>
-  </si>
-  <si>
     <t>FECHA ACTUALIZACION TC</t>
   </si>
   <si>
     <t>09876348</t>
   </si>
   <si>
-    <t>Banco</t>
-  </si>
-  <si>
     <t>TAMAÑO</t>
   </si>
   <si>
-    <t>FECHA ACTUALIZACION</t>
-  </si>
-  <si>
-    <t>USUARIO ACTUALIZACION</t>
-  </si>
-  <si>
-    <t>Código único y correlativo por producto</t>
-  </si>
-  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
@@ -500,9 +470,6 @@
     <t>12/05/2015</t>
   </si>
   <si>
-    <t>VISA</t>
-  </si>
-  <si>
     <t>0006030955</t>
   </si>
   <si>
@@ -518,42 +485,18 @@
     <t>DESCRIPCIÓN</t>
   </si>
   <si>
-    <t>01/1900</t>
-  </si>
-  <si>
     <t>Fecha de creación del registro</t>
   </si>
   <si>
     <t>Usuario que realizó la creación del registro</t>
   </si>
   <si>
-    <t>Fecha de actualización del registro</t>
-  </si>
-  <si>
-    <t>Usuario que realizó la actualiazación del registro</t>
-  </si>
-  <si>
     <t>TIPO</t>
   </si>
   <si>
     <t>COLUMNA</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Solo acepta </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ACTIVO o BAJA</t>
-    </r>
-  </si>
-  <si>
     <t>NRO</t>
   </si>
   <si>
@@ -569,9 +512,6 @@
     <t>OBSERVACION ESTADO</t>
   </si>
   <si>
-    <t>BANCO / EMISOR</t>
-  </si>
-  <si>
     <t>SCOTIABANK</t>
   </si>
   <si>
@@ -584,9 +524,6 @@
     <t>RIPLEY</t>
   </si>
   <si>
-    <t>MasterCard</t>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
@@ -626,61 +563,64 @@
     <t>CENCOSUD</t>
   </si>
   <si>
-    <t>CÓDIGO DE COMERCIO</t>
-  </si>
-  <si>
-    <t>0005003995</t>
-  </si>
-  <si>
-    <t>0005004187</t>
-  </si>
-  <si>
-    <t>0521582102</t>
-  </si>
-  <si>
-    <t>0005005477</t>
-  </si>
-  <si>
-    <t>0521582103</t>
-  </si>
-  <si>
-    <t>0005004188</t>
-  </si>
-  <si>
-    <t>0005004551</t>
-  </si>
-  <si>
-    <t>0005004245</t>
-  </si>
-  <si>
-    <t>0521582101</t>
-  </si>
-  <si>
-    <t>0005003245</t>
-  </si>
-  <si>
-    <t>0005005591</t>
-  </si>
-  <si>
-    <t>0005003495</t>
-  </si>
-  <si>
-    <t>0521582104</t>
-  </si>
-  <si>
-    <t>COD. CONCATENADO</t>
-  </si>
-  <si>
-    <t>COD. PROD.</t>
-  </si>
-  <si>
-    <t>COD. M.P.</t>
+    <t>Debe tener formato "mm/yyyy"</t>
+  </si>
+  <si>
+    <t>Debe tener formato "dd/mm/yyyy"</t>
+  </si>
+  <si>
+    <t>Código de banco + Código de producto + Correlativo por producto</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>SALA DE URGENCIAS CON PROTECCION TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe coincidir con el código de banco seleccionado. </t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
   </si>
   <si>
     <t>ANUAL</t>
   </si>
   <si>
+    <t>SEMESTRAL</t>
+  </si>
+  <si>
     <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>TIPO DOCUMENTO</t>
+  </si>
+  <si>
+    <t>RUC</t>
+  </si>
+  <si>
+    <t>Revisar tabla Tipo Documento</t>
+  </si>
+  <si>
+    <t>Revisar tabla Producto</t>
+  </si>
+  <si>
+    <t>Revisar tabla Periodo Cobro</t>
+  </si>
+  <si>
+    <t>Revisar tabla Estado</t>
+  </si>
+  <si>
+    <t>El separador de decimales es "punto"</t>
   </si>
 </sst>
 </file>
@@ -693,7 +633,7 @@
     <numFmt numFmtId="166" formatCode="mm/yy"/>
     <numFmt numFmtId="167" formatCode="mm/yyyy"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,13 +815,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -894,7 +827,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -952,12 +885,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1082,30 +1009,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1235,6 +1150,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1273,44 +1214,44 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1335,30 +1276,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,14 +1314,45 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="26" fillId="37" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="25" fillId="33" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="72">
     <cellStyle name="%" xfId="3"/>
@@ -1772,7 +1729,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:AY5"/>
   <sheetViews>
@@ -1817,7 +1774,7 @@
     <col min="37" max="37" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="14.5703125" customWidth="1"/>
-    <col min="40" max="40" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.28515625" customWidth="1"/>
     <col min="41" max="41" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="8" bestFit="1" customWidth="1"/>
@@ -1848,19 +1805,19 @@
       <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="48" t="s">
         <v>85</v>
       </c>
       <c r="K1" s="9" t="s">
@@ -1911,7 +1868,7 @@
       <c r="Z1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="47" t="s">
         <v>64</v>
       </c>
       <c r="AB1" s="9" t="s">
@@ -1932,10 +1889,10 @@
       <c r="AG1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AH1" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AI1" s="47" t="s">
         <v>23</v>
       </c>
       <c r="AJ1" s="9" t="s">
@@ -1947,7 +1904,7 @@
       <c r="AL1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AM1" s="20" t="s">
+      <c r="AM1" s="47" t="s">
         <v>65</v>
       </c>
       <c r="AN1" s="9" t="s">
@@ -1959,33 +1916,33 @@
       <c r="AP1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AQ1" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="AR1" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS1" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT1" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU1" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="AV1" s="15" t="s">
-        <v>177</v>
+      <c r="AR1" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS1" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT1" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU1" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV1" s="47" t="s">
+        <v>105</v>
       </c>
       <c r="AW1" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AX1" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AY1" t="str">
-        <f>+CONCATENATE(A1,AX1,B1,AX1,C1,AX1,D1,AX1,E1,AX1,F1,AX1,G1,AX1,TEXT(H1,"MM/YYYY"),AX1,I1,AX1,J1,AX1,K1,AX1,L1,AX1,M1,AX1,N1,AX1,O1,AX1,P1,AX1,Q1,AX1,R1,AX1,S1,AX1,T1,AX1,U1,AX1,V1,AX1,W1,AX1,X1,AX1,Y1,AX1,TEXT(Z1,"DD/MM/YYYY"),AX1,AA1,AX1,AB1,AX1,AC1,AX1,AD1,AX1,AE1,AX1,AF1,AX1,AG1,AX1,AH1,AX1,AI1,AX1,AJ1,AX1,AK1,AX1,AL1,AX1,AM1,AX1,AN1,AX1,TEXT(AO1,"DD/MM/YYYY"),AX1,AP1,AX1,AQ1,AX1,IF(ISBLANK(AR1),"",TEXT(AR1,"DD/MM/YYYY")),AX1,AS1,AX1,AT1,AX1,AU1,AX1,AV1,AX1,IF(ISBLANK(AW1),"",TEXT(AW1,"DD/MM/YYYY")))</f>
-        <v>TIPO DOC|NUIC RESP PAGO|AP PAT RESP PAGO|AP MAT RESP PAGO|NOMBRES RESP PAGO|N° TARJETA DE CREDITO|N° DE CUENTA|FECHA VENC TARJETA|STATUS|DÍAS MORA|NUIC CONTRATANTE|AP PAT CONTRATANTE|AP MAT CONTRATANTE|NOMBRES CONTRATANTE|NUIC ASEGURADO|AP PAT ASEGURADO|AP MAT ASEGURADO|NOMBRES ASEGURADO|TELEFONO 1|TELEFONO 2|E-MAIL|DEPARTAMENTO|PROVINCIA|DISTRITO|DIRECCION|FECHA DE VENTA|CANAL DE VENTA|LUGAR DE VENTA|COD DE VENDEDOR|NOMBRE DE VENDEDOR|# DE POLIZA|# CERTIFICADO|# PROPUESTA|CODIGO DE COMERCIO|PRODUCTO|DESCRIPCION DEL PRODUCTO|PERIODO DE COBRO|TIPO DE COBRO|BANCO|PRIMA|FECHA DE AUDITORIA|USUARIO DE AUDITORIA|ESTADO|FECHA ESTADO|USUARIO ESTADO|CANAL ESTADO|MOTIVO ESTADO|OBSERVACION ESTADO|FECHA ACTUALIZACION TC</v>
+        <f>+CONCATENATE(A1,AX1,B1,AX1,C1,AX1,D1,AX1,E1,AX1,F1,AX1,G1,AX1,TEXT(H1,"MM/AAAA"),AX1,I1,AX1,J1,AX1,K1,AX1,L1,AX1,M1,AX1,N1,AX1,O1,AX1,P1,AX1,Q1,AX1,R1,AX1,S1,AX1,T1,AX1,U1,AX1,V1,AX1,W1,AX1,X1,AX1,Y1,AX1,TEXT(Z1,"DD/MM/AAAA"),AX1,AA1,AX1,AB1,AX1,AC1,AX1,AD1,AX1,AE1,AX1,AF1,AX1,AG1,AX1,AH1,AX1,AI1,AX1,AJ1,AX1,AK1,AX1,AL1,AX1,AM1,AX1,TEXT(AN1,"0.00"),AX1,TEXT(AO1,"DD/MM/AAAA"),AX1,AP1,AX1,AQ1,AX1,IF(ISBLANK(AR1),"",TEXT(AR1,"DD/MM/AAAA")),AX1,AS1,AX1,AT1,AX1,AU1,AX1,AV1,AX1,IF(ISBLANK(AW1),"",TEXT(AW1,"DD/MM/AAAA")))</f>
+        <v>TIPO DOC|NUIC RESP PAGO|AP PAT RESP PAGO|AP MAT RESP PAGO|NOMBRES RESP PAGO|N° TARJETA DE CREDITO|N° DE CUENTA|FECHA VENC TARJETA|STATUS|DÍAS MORA|NUIC CONTRATANTE|AP PAT CONTRATANTE|AP MAT CONTRATANTE|NOMBRES CONTRATANTE|NUIC ASEGURADO|AP PAT ASEGURADO|AP MAT ASEGURADO|NOMBRES ASEGURADO|TELEFONO 1|TELEFONO 2|E-MAIL|DEPARTAMENTO|PROVINCIA|DISTRITO|DIRECCION|FECHA DE VENTA|CANAL DE VENTA|LUGAR DE VENTA|COD DE VENDEDOR|NOMBRE DE VENDEDOR|# DE POLIZA|# CERTIFICADO|# PROPUESTA|CODIGO DE COMERCIO|PRODUCTO|DESCRIPCION DEL PRODUCTO|PERIODO DE COBRO|TIPO DE COBRO|BANCO|PRIMA|FECHA DE AUDITORIA|USUARIO DE AUDITORIA|ESTADO|FECHA ESTADO|USUARIO BAJA|CANAL BAJA|MOTIVO BAJA|OBSERVACION BAJA|FECHA ACTUALIZACION TC</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
@@ -2032,7 +1989,7 @@
         <v>55</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>53</v>
@@ -2049,8 +2006,8 @@
       <c r="T2" s="4">
         <v>4212121</v>
       </c>
-      <c r="U2" s="18" t="s">
-        <v>144</v>
+      <c r="U2" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>57</v>
@@ -2089,22 +2046,22 @@
         <v>74</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="AJ2" s="4" t="s">
         <v>77</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="AL2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AM2" s="4">
-        <v>10</v>
+      <c r="AM2" s="5">
+        <v>20</v>
       </c>
       <c r="AN2" s="4">
         <v>200</v>
@@ -2122,26 +2079,26 @@
         <v>42005</v>
       </c>
       <c r="AS2" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AT2" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AW2" s="6">
         <v>42005</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AY2" t="str">
-        <f t="shared" ref="AY2:AY5" si="0">+CONCATENATE(A2,AX2,B2,AX2,C2,AX2,D2,AX2,E2,AX2,F2,AX2,G2,AX2,TEXT(H2,"MM/YYYY"),AX2,I2,AX2,J2,AX2,K2,AX2,L2,AX2,M2,AX2,N2,AX2,O2,AX2,P2,AX2,Q2,AX2,R2,AX2,S2,AX2,T2,AX2,U2,AX2,V2,AX2,W2,AX2,X2,AX2,Y2,AX2,TEXT(Z2,"DD/MM/YYYY"),AX2,AA2,AX2,AB2,AX2,AC2,AX2,AD2,AX2,AE2,AX2,AF2,AX2,AG2,AX2,AH2,AX2,AI2,AX2,AJ2,AX2,AK2,AX2,AL2,AX2,AM2,AX2,AN2,AX2,TEXT(AO2,"DD/MM/YYYY"),AX2,AP2,AX2,AQ2,AX2,IF(ISBLANK(AR2),"",TEXT(AR2,"DD/MM/YYYY")),AX2,AS2,AX2,AT2,AX2,AU2,AX2,AV2,AX2,IF(ISBLANK(AW2),"",TEXT(AW2,"DD/MM/YYYY")))</f>
-        <v>DNI|223456|MARTINEZ|NUÑEZ|MARIO|4500343434566778|7745689000|11/2017|NORMAL|0|09876342|GARCIA|DE MARTINEZ|MARIA SOLEDAD|09876348|GARCIA|DE MARTINEZ|MARIA SOLEDAD|999888345|4212121|cesar_return@hotmail.com|LIMA|LIMA|SAN ISIDRO|Jr Leguia 222, Ur Corpac, San Isidro|01/01/2015|BANCO|AG. CENTRO CIVICO|WQ6656|Juan Salas|00000000OF|0000003216|0000182418|0521582105|01|ASISTENCIA|ANUAL|PREPAGO|10|200|04/01/2015|GLAI|BAJA|01/01/2015|CCASTILLO|COBRANZAS|MOROSIDAD|3 MESES SIN COBRO|01/01/2015</v>
+        <f t="shared" ref="AY2:AY5" si="0">+CONCATENATE(A2,AX2,B2,AX2,C2,AX2,D2,AX2,E2,AX2,F2,AX2,G2,AX2,TEXT(H2,"MM/AAAA"),AX2,I2,AX2,J2,AX2,K2,AX2,L2,AX2,M2,AX2,N2,AX2,O2,AX2,P2,AX2,Q2,AX2,R2,AX2,S2,AX2,T2,AX2,U2,AX2,V2,AX2,W2,AX2,X2,AX2,Y2,AX2,TEXT(Z2,"DD/MM/AAAA"),AX2,AA2,AX2,AB2,AX2,AC2,AX2,AD2,AX2,AE2,AX2,AF2,AX2,AG2,AX2,AH2,AX2,AI2,AX2,AJ2,AX2,AK2,AX2,AL2,AX2,AM2,AX2,TEXT(AN2,"0.00"),AX2,TEXT(AO2,"DD/MM/AAAA"),AX2,AP2,AX2,AQ2,AX2,IF(ISBLANK(AR2),"",TEXT(AR2,"DD/MM/AAAA")),AX2,AS2,AX2,AT2,AX2,AU2,AX2,AV2,AX2,IF(ISBLANK(AW2),"",TEXT(AW2,"DD/MM/AAAA")))</f>
+        <v>DNI|223456|MARTINEZ|NUÑEZ|MARIO|4500343434566778|7745689000|11/2017|NORMAL|0|09876342|GARCIA|DE MARTINEZ|MARIA SOLEDAD|09876348|GARCIA|DE MARTINEZ|MARIA SOLEDAD|999888345|4212121|cesar_return@hotmail.com|LIMA|LIMA|SAN ISIDRO|Jr Leguia 222, Ur Corpac, San Isidro|01/01/2015|BANCO|AG. CENTRO CIVICO|WQ6656|Juan Salas|00000000OF|0000003216|0000182418|0521582105|01|ASISTENCIA|ANUAL|PREPAGO|20|200.00|04/01/2015|GLAI|BAJA|01/01/2015|CCASTILLO|COBRANZAS|MOROSIDAD|3 MESES SIN COBRO|01/01/2015</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
@@ -2205,8 +2162,8 @@
       <c r="T3" s="4">
         <v>3244455</v>
       </c>
-      <c r="U3" s="18" t="s">
-        <v>144</v>
+      <c r="U3" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>58</v>
@@ -2245,10 +2202,10 @@
         <v>76</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="AJ3" s="4" t="s">
         <v>77</v>
@@ -2259,8 +2216,8 @@
       <c r="AL3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AM3" s="4">
-        <v>10</v>
+      <c r="AM3" s="5">
+        <v>20</v>
       </c>
       <c r="AN3" s="4">
         <v>17.899999999999999</v>
@@ -2278,26 +2235,26 @@
         <v>42006</v>
       </c>
       <c r="AS3" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AT3" s="4" t="s">
         <v>65</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AV3" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AW3" s="6">
         <v>42005</v>
       </c>
       <c r="AX3" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AY3" t="str">
         <f t="shared" si="0"/>
-        <v>DNI|55674|SUAREZ|COLCHADO|LUIS|4500343434570231|7745689889|12/2015|MORA &lt; 90|33|00055674|SUAREZ|COLCHADO|LUIS|5567557|SUAREZ|COLCHADO|LUIS|992233111|3244455|cesar_return@hotmail.com|JUNIN|HUANCAYO|EL TAMBO|Jr Parra del Riego h33, Ur Ambrosio Salazar|02/01/2015|TMK|TMK|006453|Daniel Napaico|00000000OF|0000003188|0000181798|0006030955|01|ASISTENCIA|MENSUAL|RECURRENTE|10|17.9|05/01/2015|USENA|BAJA|02/01/2015|BLINARES|BANCO|A SOLICITUD DEL CLIENTE|NO DESEA EL SERVICIO|01/01/2015</v>
+        <v>DNI|55674|SUAREZ|COLCHADO|LUIS|4500343434570231|7745689889|12/2015|MORA &lt; 90|33|00055674|SUAREZ|COLCHADO|LUIS|5567557|SUAREZ|COLCHADO|LUIS|992233111|3244455|cesar_return@hotmail.com|JUNIN|HUANCAYO|EL TAMBO|Jr Parra del Riego h33, Ur Ambrosio Salazar|02/01/2015|TMK|TMK|006453|Daniel Napaico|00000000OF|0000003188|0000181798|0006030955|01|ASISTENCIA|MENSUAL|RECURRENTE|20|17.90|05/01/2015|USENA|BAJA|02/01/2015|BLINARES|BANCO|A SOLICITUD DEL CLIENTE|NO DESEA EL SERVICIO|01/01/2015</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
@@ -2308,22 +2265,22 @@
         <v>25478</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>131</v>
+        <v>118</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="G4">
         <v>7745896521</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>130</v>
+      <c r="H4" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
@@ -2332,37 +2289,37 @@
         <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="L4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="M4" t="s">
         <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="O4">
         <v>4343434</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="Q4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="R4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="S4">
-        <v>987556329</v>
+        <v>998711132</v>
       </c>
       <c r="T4">
         <v>458778891</v>
       </c>
-      <c r="U4" s="18" t="s">
-        <v>144</v>
+      <c r="U4" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="V4" s="3" t="s">
         <v>57</v>
@@ -2371,13 +2328,13 @@
         <v>57</v>
       </c>
       <c r="X4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Y4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="Z4" s="6">
-        <v>42007</v>
+        <v>42006</v>
       </c>
       <c r="AA4" s="6" t="s">
         <v>66</v>
@@ -2385,26 +2342,26 @@
       <c r="AB4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AC4" s="19" t="s">
-        <v>149</v>
+      <c r="AC4" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="AE4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AF4" s="19" t="s">
-        <v>153</v>
+      <c r="AF4" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="AJ4" s="4" t="s">
         <v>77</v>
@@ -2415,20 +2372,20 @@
       <c r="AL4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AM4" s="4">
-        <v>10</v>
+      <c r="AM4" s="5">
+        <v>20</v>
       </c>
       <c r="AN4">
         <v>77.2</v>
       </c>
       <c r="AO4" s="5" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AP4" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AQ4" s="4" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="AR4" s="6">
         <v>42007</v>
@@ -2437,11 +2394,11 @@
         <v>42006</v>
       </c>
       <c r="AX4" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AY4" t="str">
         <f t="shared" si="0"/>
-        <v>DNI|25478|SANCHEZ|MONTERROSO|CESAR|4500343344570230|7745896521|12/2015|MORA &lt; 90|27|0147855|PEREZ|MARTINEZ|JUAN|4343434|QUISPE|PERCA|WILLY|987556329|458778891|cesar_return@hotmail.com|LIMA|LIMA|SAN JUAN DE MIRAFLORES|Jr ilo 554|03/01/2015|TMK|TMK|998555|Luis Perez|00000000OF|00002254|55455555|0005003745|01|ASISTENCIA|MENSUAL|RECURRENTE|10|77.2|25/01/2015|USENA|ACTIVO|03/01/2015|||||02/01/2015</v>
+        <v>DNI|25478|SANCHEZ|MONTERROSO|CESAR|4500343344570230|7745896521|12/2015|MORA &lt; 90|27|0147855|PEREZ|MARTINEZ|JUAN|4343434|QUISPE|PERCA|WILLY|998711132|458778891|cesar_return@hotmail.com|LIMA|LIMA|SAN JUAN DE MIRAFLORES|Jr ilo 554|02/01/2015|TMK|TMK|998555|Luis Perez|00000000OF|00002254|55455555|0005003745|01|ASISTENCIA|MENSUAL|RECURRENTE|20|77.20|25/01/2015|USENA|ACTIVO|03/01/2015|||||02/01/2015</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
@@ -2452,22 +2409,22 @@
         <v>445874</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="G5">
         <v>7445435133</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
@@ -2476,13 +2433,13 @@
         <v>60</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="L5" t="s">
         <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="N5" t="s">
         <v>43</v>
@@ -2491,22 +2448,22 @@
         <v>67876767</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="Q5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="R5" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="S5">
-        <v>988744556</v>
+        <v>998874455</v>
       </c>
       <c r="T5">
         <v>455876522</v>
       </c>
-      <c r="U5" s="18" t="s">
-        <v>144</v>
+      <c r="U5" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="V5" t="s">
         <v>57</v>
@@ -2515,13 +2472,13 @@
         <v>57</v>
       </c>
       <c r="X5" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="Y5" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="Z5" s="6">
-        <v>42008</v>
+        <v>42006</v>
       </c>
       <c r="AA5" s="6" t="s">
         <v>66</v>
@@ -2529,26 +2486,26 @@
       <c r="AB5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AC5" s="19" t="s">
-        <v>150</v>
+      <c r="AC5" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="AE5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AF5" s="19" t="s">
-        <v>154</v>
+      <c r="AF5" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="AJ5" s="4" t="s">
         <v>77</v>
@@ -2559,20 +2516,20 @@
       <c r="AL5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AM5" s="4">
-        <v>10</v>
+      <c r="AM5" s="5">
+        <v>20</v>
       </c>
       <c r="AN5">
         <v>889.36</v>
       </c>
       <c r="AO5" s="5" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AP5" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AQ5" s="4" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="AR5" s="6">
         <v>42008</v>
@@ -2581,11 +2538,11 @@
         <v>42007</v>
       </c>
       <c r="AX5" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AY5" t="str">
         <f t="shared" si="0"/>
-        <v>DNI|445874|SALAS|LOPEZ|ADRIAN|4500343434570220|7445435133|12/2015|MORA &lt; 90|60|44455556|GARCIA|GUEVARA|LUIS|67876767|TRUJILLO|BALZA|MARIA|988744556|455876522|cesar_return@hotmail.com|LIMA|LIMA|MIRAFLORES|Jr trujillo 334|04/01/2015|TMK|TMK|001254|Jose Luna|00000000OF|0002254|0024546|0005003745|01|ASISTENCIA|MENSUAL|RECURRENTE|10|889.36|12/05/2015|USENA|ACTIVO|04/01/2015|||||03/01/2015</v>
+        <v>DNI|445874|SALAS|LOPEZ|ADRIAN|4500343434570220|7445435133|12/2015|MORA &lt; 90|60|44455556|GARCIA|GUEVARA|LUIS|67876767|TRUJILLO|BALZA|MARIA|998874455|455876522|cesar_return@hotmail.com|LIMA|LIMA|MIRAFLORES|Jr trujillo 334|02/01/2015|TMK|TMK|001254|Jose Luna|00000000OF|0002254|0024546|0005003745|01|ASISTENCIA|MENSUAL|RECURRENTE|20|889.36|12/05/2015|USENA|ACTIVO|04/01/2015|||||03/01/2015</v>
       </c>
     </row>
   </sheetData>
@@ -2600,13 +2557,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2615,1090 +2569,972 @@
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="A1" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="18">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="18">
+        <v>11</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="18">
+        <v>50</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="18">
+        <v>50</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="18">
+        <v>50</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="22">
+        <v>16</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="22">
+        <v>10</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="26">
+        <v>20</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="26">
+        <v>4</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="18">
+        <v>8</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="18">
+        <v>50</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="18">
+        <v>50</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="18">
+        <v>50</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="18">
+        <v>8</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="18">
+        <v>50</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="18">
+        <v>50</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="18">
+        <v>50</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="18">
+        <v>9</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="18">
+        <v>9</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="18">
+        <v>45</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
+        <v>22</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="18">
+        <v>20</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="33">
+        <v>23</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="18">
+        <v>50</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
+        <v>24</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="18">
+        <v>50</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="33">
+        <v>25</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="18">
+        <v>150</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="33">
+        <v>26</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="33">
+        <v>27</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="26">
+        <v>15</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="33">
+        <v>28</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="26">
+        <v>25</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="33">
+        <v>29</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="22">
+        <v>10</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="33">
+        <v>30</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="26">
+        <v>50</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="33">
+        <v>31</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="22">
+        <v>10</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="22">
+        <v>10</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
+        <v>33</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="22">
+        <v>10</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="33">
+        <v>34</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="18">
+        <v>10</v>
+      </c>
+      <c r="E35" s="28"/>
+      <c r="F35" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="33">
+        <v>35</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="26">
+        <v>2</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="33">
+        <v>36</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="26">
+        <v>45</v>
+      </c>
+      <c r="E37" s="28"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="33">
+        <v>37</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="26">
+        <v>45</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
+        <v>38</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="26">
+        <v>15</v>
+      </c>
+      <c r="E39" s="28"/>
+      <c r="F39" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="33">
+        <v>39</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="26">
+        <v>2</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="33">
+        <v>40</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="33">
+        <v>41</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="33">
+        <v>42</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="26">
+        <v>15</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="33">
+        <v>43</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="33">
+        <v>44</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="33">
+        <v>45</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="18">
+        <v>15</v>
+      </c>
+      <c r="E46" s="28"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="33">
+        <v>46</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="18">
+        <v>15</v>
+      </c>
+      <c r="E47" s="28"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="33">
+        <v>47</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="18">
+        <v>50</v>
+      </c>
+      <c r="E48" s="28"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="33">
+        <v>48</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="18">
         <v>120</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="38">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="23">
-        <v>3</v>
-      </c>
-      <c r="E2" s="24" t="s">
+      <c r="E49" s="28"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="33">
+        <v>49</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="31">
+        <v>50</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="D51" s="31">
+        <v>10</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="31">
         <v>51</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="B52" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="31">
+        <v>52</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="23">
-        <v>8</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
-        <v>3</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="23">
-        <v>50</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
-        <v>4</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="23">
-        <v>50</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
-        <v>5</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="23">
-        <v>50</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
-        <v>6</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="27">
-        <v>16</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
-        <v>7</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="27">
-        <v>10</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
-        <v>8</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="31">
-        <v>20</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
-        <v>10</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="31">
-        <v>4</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="23">
-        <v>8</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
-        <v>12</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="23">
-        <v>50</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
-        <v>13</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="23">
-        <v>50</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
-        <v>14</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="23">
-        <v>50</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="23">
-        <v>8</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
-        <v>16</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="23">
-        <v>50</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
-        <v>17</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="23">
-        <v>50</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
-        <v>18</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="23">
-        <v>50</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
-        <v>19</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="23">
-        <v>9</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
-        <v>20</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="23">
-        <v>9</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
-        <v>21</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="23">
-        <v>45</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
-        <v>22</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="23">
-        <v>20</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
-        <v>23</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="23">
-        <v>20</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
-        <v>24</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="23">
-        <v>40</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
-        <v>25</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="23">
-        <v>150</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
-        <v>26</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="32">
-        <v>10</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
-        <v>27</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="31">
-        <v>15</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="38">
-        <v>28</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="31">
-        <v>25</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="38">
-        <v>29</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="27">
-        <v>10</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="38">
-        <v>30</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="31">
-        <v>35</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="38">
-        <v>31</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="27">
-        <v>10</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="38">
-        <v>32</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="27">
-        <v>10</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="38">
-        <v>33</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="27">
-        <v>10</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="38">
-        <v>34</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="23">
-        <v>10</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35" s="25"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="38">
-        <v>35</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="31">
-        <v>45</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G36" s="25"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="38">
-        <v>36</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="31">
-        <v>45</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="31">
-        <v>45</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" s="25"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="38">
-        <v>38</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="31">
-        <v>15</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" s="25"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="38">
-        <v>39</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="31">
-        <v>10</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" s="25"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="38">
-        <v>40</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="31">
-        <v>8</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G41" s="25"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="38">
-        <v>41</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="32">
-        <v>10</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G42" s="25"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="38">
-        <v>42</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="31">
-        <v>15</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G43" s="25"/>
-    </row>
-    <row r="44" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38">
-        <v>43</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="12"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="38">
-        <v>44</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="32">
-        <v>10</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="38">
-        <v>45</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="23">
-        <v>15</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="38">
-        <v>46</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="23">
-        <v>15</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="38">
-        <v>47</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="23">
-        <v>30</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="38">
-        <v>48</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="23">
-        <v>120</v>
-      </c>
-      <c r="E49" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="38">
-        <v>49</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="32">
-        <v>10</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="36">
-        <v>50</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="36">
-        <v>20</v>
-      </c>
-      <c r="E51" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="36">
-        <v>51</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="36">
-        <v>52</v>
-      </c>
-      <c r="B53" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="36">
-        <v>53</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="36">
-        <v>54</v>
-      </c>
-      <c r="B55" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3708,506 +3544,184 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="44"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="38">
+        <v>10</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="38">
+        <v>20</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="38">
+        <v>30</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="E13" s="42" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="38">
+        <v>40</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="38">
+        <v>50</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="38">
+        <v>60</v>
+      </c>
+      <c r="C16" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="38" t="str">
-        <f>CONCATENATE(B2,D2,F2)</f>
-        <v>00050039950103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" s="38" t="str">
-        <f t="shared" ref="G3:G20" si="0">CONCATENATE(B3,D3,F3)</f>
-        <v>00050041870103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="G4" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>05215821020101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>00050041870102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="G6" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>00050054770203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="G7" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>05215821030201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>00050054770202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>00050041880503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="G10" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>05215821050101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="G11" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>00060309550102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="G12" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>00050045510102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>00050045510402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>00050037450103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="G15" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>00050042450303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="G16" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>05215821010101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="G17" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>00050032450102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="G18" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>05215821040301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="G19" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>00050055910302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="G20" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>00050034950103</v>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="38">
+        <v>70</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="38">
+        <v>80</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F2 F3:F20 D2:D20 B2:B20" numberStoredAsText="1"/>
+    <ignoredError sqref="B3:B8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>